--- a/Documentations/Datasets/slackbus.xlsx
+++ b/Documentations/Datasets/slackbus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7137CF56-7485-47D9-9969-0887A877C344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8DDF0-97D4-4A6E-8098-C82B69212452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02368925-FB68-47DE-A660-EAA97F9F58F2}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <v>0.997</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="9">
         <v>0.9456</v>

--- a/Documentations/Datasets/slackbus.xlsx
+++ b/Documentations/Datasets/slackbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8DDF0-97D4-4A6E-8098-C82B69212452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCC16A-11A0-441E-8952-7CCBDC4A2718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02368925-FB68-47DE-A660-EAA97F9F58F2}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="9">
         <v>0.9456</v>
@@ -4953,21 +4953,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025B10B9F6FFF7142B7B32A4A4A47FA43" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66c3d941594396c273f2733aaa9e4491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="034b7289-f67f-4149-bf72-e8ff36efdb2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a3e312227fdd923874c5297960ecd80" ns3:_="">
     <xsd:import namespace="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
@@ -5099,10 +5084,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524FC3A-FFBB-4947-8673-B2AD9D6D8986}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B6B2C-9891-4227-91D2-DF310237F6D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5124,19 +5134,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B6B2C-9891-4227-91D2-DF310237F6D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524FC3A-FFBB-4947-8673-B2AD9D6D8986}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>